--- a/Excel/UITestData.xlsx
+++ b/Excel/UITestData.xlsx
@@ -1,42 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haseef.rawthar\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3CB5AF4-B7B1-4555-870C-8F30A8711FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0ABB6090-C58B-4395-A577-3F59E9EB0FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E78A9855-8265-44E1-ACD1-683C5C5B2368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E78A9855-8265-44E1-ACD1-683C5C5B2368}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="RegisterUser" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -54,6 +40,18 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>test@123</t>
   </si>
 </sst>
 </file>
@@ -418,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2011B1-F8B2-4DB5-B637-FB4D19A3BDFD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -461,7 +459,56 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54D8B19-20B1-43AE-A8CD-CC55FF09B251}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{FAD91DC4-09F4-421A-B54E-C334740C87AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000F648CB8479294FAE85FA8D083B83BA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49311042fad02806b84819cd80303486">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ec57f50c-f106-4e02-afea-9c7d9b9283f6" xmlns:ns4="3c8c1b1e-e5ff-478e-8d25-eb0b3c42edd0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b1dd50bd29106925e3c97fc400bd4fe" ns3:_="" ns4:_="">
     <xsd:import namespace="ec57f50c-f106-4e02-afea-9c7d9b9283f6"/>
@@ -684,7 +731,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -693,13 +740,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B35BDCA-B292-4E73-BB5E-2770F9A07705}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ec57f50c-f106-4e02-afea-9c7d9b9283f6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3c8c1b1e-e5ff-478e-8d25-eb0b3c42edd0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8EE4D5C-CB3A-495C-A410-43EF8AECE4DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -718,27 +776,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{463A7A11-5C5E-4C59-9DE5-06B07F522FAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B35BDCA-B292-4E73-BB5E-2770F9A07705}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ec57f50c-f106-4e02-afea-9c7d9b9283f6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3c8c1b1e-e5ff-478e-8d25-eb0b3c42edd0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>